--- a/NEL_sitrep_discharge.xlsx
+++ b/NEL_sitrep_discharge.xlsx
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:G50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H48" si="2">SUM(B3:D3)</f>
+        <f t="shared" ref="H3:H52" si="2">SUM(B3:D3)</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I48" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I54" si="4">I3+H4</f>
         <v>0</v>
       </c>
     </row>
@@ -2018,6 +2018,148 @@
         <f t="shared" si="4"/>
         <v>2482</v>
       </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43946</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E54" si="10">E48+B49</f>
+        <v>478</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F54" si="11">F48+C49</f>
+        <v>1848</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49:G54" si="12">G48+D49</f>
+        <v>185</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>43947</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="10"/>
+        <v>482</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="11"/>
+        <v>1870</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>43948</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>35</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="10"/>
+        <v>494</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="11"/>
+        <v>1905</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="12"/>
+        <v>190</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="10"/>
+        <v>501</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="11"/>
+        <v>1940</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="12"/>
+        <v>192</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NEL_sitrep_discharge.xlsx
+++ b/NEL_sitrep_discharge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.elc.nhs.uk\NetworkDrive\TowerHamletsCCG\NHSTHCCG\Financial strategy\Analysis\Covid-19\Beds and demand modelling\Peak demand estimate\SEIR model python code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheethamn\Desktop\SEIR model python code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,6 +108,1287 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DailyBHRUTBartsHom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5AC-4DC5-A10F-C2DA0CD8C11D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462402456"/>
+        <c:axId val="462396552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="462402456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462396552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462396552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462402456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H52" si="2">SUM(B3:D3)</f>
+        <f t="shared" ref="H3:H72" si="2">SUM(B3:D3)</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -519,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I54" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I68" si="4">I3+H4</f>
         <v>0</v>
       </c>
     </row>
@@ -2033,15 +3314,15 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E54" si="10">E48+B49</f>
+        <f t="shared" ref="E49:E52" si="10">E48+B49</f>
         <v>478</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F54" si="11">F48+C49</f>
+        <f t="shared" ref="F49:F52" si="11">F48+C49</f>
         <v>1848</v>
       </c>
       <c r="G49">
-        <f t="shared" ref="G49:G54" si="12">G48+D49</f>
+        <f t="shared" ref="G49:G57" si="12">G48+D49</f>
         <v>185</v>
       </c>
       <c r="H49">
@@ -2156,12 +3437,687 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3">
+        <v>43950</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>37</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:E57" si="13">E52+B53</f>
+        <v>511</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:F57" si="14">F52+C53</f>
+        <v>1977</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="12"/>
+        <v>197</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>2685</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="13"/>
+        <v>521</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="14"/>
+        <v>2007</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="12"/>
+        <v>201</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="13"/>
+        <v>528</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="14"/>
+        <v>2039</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="12"/>
+        <v>202</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>43953</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="13"/>
+        <v>540</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="14"/>
+        <v>2063</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="12"/>
+        <v>202</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>43954</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="13"/>
+        <v>540</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="14"/>
+        <v>2082</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="12"/>
+        <v>202</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:E64" si="15">E57+B58</f>
+        <v>549</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:F64" si="16">F57+C58</f>
+        <v>2110</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58:G67" si="17">G57+D58</f>
+        <v>205</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>43956</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="15"/>
+        <v>564</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="16"/>
+        <v>2135</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="17"/>
+        <v>206</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="15"/>
+        <v>574</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="16"/>
+        <v>2163</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="17"/>
+        <v>208</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>23</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="15"/>
+        <v>586</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="16"/>
+        <v>2186</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="17"/>
+        <v>209</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="15"/>
+        <v>591</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="16"/>
+        <v>2198</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="17"/>
+        <v>210</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>43960</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="15"/>
+        <v>594</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="16"/>
+        <v>2210</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="17"/>
+        <v>211</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>43961</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="15"/>
+        <v>596</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="16"/>
+        <v>2223</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="17"/>
+        <v>211</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>43962</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:E67" si="18">E64+B65</f>
+        <v>600</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:F67" si="19">F64+C65</f>
+        <v>2234</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="17"/>
+        <v>211</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="18"/>
+        <v>606</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="19"/>
+        <v>2255</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="17"/>
+        <v>213</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>43964</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="18"/>
+        <v>612</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="19"/>
+        <v>2268</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="17"/>
+        <v>216</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E70" si="20">E67+B68</f>
+        <v>619</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F70" si="21">F67+C68</f>
+        <v>2280</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G70" si="22">G67+D68</f>
+        <v>216</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>43966</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="20"/>
+        <v>619</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="21"/>
+        <v>2297</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="22"/>
+        <v>218</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:I72" si="23">I68+H69</f>
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>43967</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="20"/>
+        <v>621</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="21"/>
+        <v>2308</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="22"/>
+        <v>220</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="23"/>
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>43968</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71" si="24">E70+B71</f>
+        <v>626</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71" si="25">F70+C71</f>
+        <v>2318</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71" si="26">G70+D71</f>
+        <v>221</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="23"/>
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72" si="27">E71+B72</f>
+        <v>631</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72" si="28">F71+C72</f>
+        <v>2334</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72" si="29">G71+D72</f>
+        <v>221</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="23"/>
+        <v>3186</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/NEL_sitrep_discharge.xlsx
+++ b/NEL_sitrep_discharge.xlsx
@@ -201,10 +201,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$67</c:f>
+              <c:f>Sheet1!$A$2:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -402,16 +402,49 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$67</c:f>
+              <c:f>Sheet1!$H$2:$H$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -609,6 +642,39 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H72" si="2">SUM(B3:D3)</f>
+        <f t="shared" ref="H3:H78" si="2">SUM(B3:D3)</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -4010,7 +4076,7 @@
         <v>19</v>
       </c>
       <c r="I69">
-        <f t="shared" ref="I69:I72" si="23">I68+H69</f>
+        <f t="shared" ref="I69:I78" si="23">I68+H69</f>
         <v>3134</v>
       </c>
     </row>
@@ -4114,6 +4180,746 @@
       <c r="I72">
         <f t="shared" si="23"/>
         <v>3186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>43970</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73" si="30">E72+B73</f>
+        <v>638</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73" si="31">F72+C73</f>
+        <v>2341</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73" si="32">G72+D73</f>
+        <v>223</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="23"/>
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>28</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:E92" si="33">E73+B74</f>
+        <v>641</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ref="F74:F92" si="34">F73+C74</f>
+        <v>2369</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ref="G74:G77" si="35">G73+D74</f>
+        <v>223</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="23"/>
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>43972</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="33"/>
+        <v>645</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="34"/>
+        <v>2384</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="35"/>
+        <v>224</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="23"/>
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="33"/>
+        <v>646</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="34"/>
+        <v>2401</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="35"/>
+        <v>225</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="23"/>
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>43974</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="33"/>
+        <v>646</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="34"/>
+        <v>2414</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="35"/>
+        <v>225</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="23"/>
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>43975</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="33"/>
+        <v>646</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="34"/>
+        <v>2422</v>
+      </c>
+      <c r="G78">
+        <f>G77+D78</f>
+        <v>225</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="23"/>
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>43976</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="33"/>
+        <v>647</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="34"/>
+        <v>2428</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ref="G79:G92" si="36">G78+D79</f>
+        <v>225</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ref="H79:H94" si="37">SUM(B79:D79)</f>
+        <v>7</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79:I94" si="38">I78+H79</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>43977</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="33"/>
+        <v>650</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="34"/>
+        <v>2437</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="36"/>
+        <v>226</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="37"/>
+        <v>13</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="38"/>
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>43978</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="33"/>
+        <v>654</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="34"/>
+        <v>2457</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="36"/>
+        <v>228</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="37"/>
+        <v>26</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="38"/>
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>43979</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="33"/>
+        <v>660</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="34"/>
+        <v>2470</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="36"/>
+        <v>229</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="37"/>
+        <v>20</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="38"/>
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>43980</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="33"/>
+        <v>661</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="34"/>
+        <v>2488</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="36"/>
+        <v>230</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="37"/>
+        <v>20</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="38"/>
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>43981</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="33"/>
+        <v>662</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="34"/>
+        <v>2496</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="36"/>
+        <v>230</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="38"/>
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>43982</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="33"/>
+        <v>663</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="34"/>
+        <v>2503</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="36"/>
+        <v>230</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="38"/>
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="33"/>
+        <v>665</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="34"/>
+        <v>2518</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="36"/>
+        <v>230</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="37"/>
+        <v>17</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="38"/>
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>43984</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="33"/>
+        <v>666</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="34"/>
+        <v>2532</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="36"/>
+        <v>232</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="37"/>
+        <v>17</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="38"/>
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>43985</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="33"/>
+        <v>666</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="34"/>
+        <v>2545</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="36"/>
+        <v>232</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="37"/>
+        <v>13</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="38"/>
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>43986</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="33"/>
+        <v>666</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="34"/>
+        <v>2558</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="36"/>
+        <v>232</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="37"/>
+        <v>13</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="38"/>
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>43987</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="33"/>
+        <v>669</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="34"/>
+        <v>2572</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="36"/>
+        <v>234</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="37"/>
+        <v>19</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="38"/>
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>43988</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="33"/>
+        <v>671</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="34"/>
+        <v>2586</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="36"/>
+        <v>234</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="37"/>
+        <v>16</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="38"/>
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>43989</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="33"/>
+        <v>671</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="34"/>
+        <v>2590</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="36"/>
+        <v>234</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="38"/>
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>43990</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ref="E93:E94" si="39">E92+B93</f>
+        <v>672</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ref="F93:F94" si="40">F92+C93</f>
+        <v>2595</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="38"/>
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>43991</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="39"/>
+        <v>673</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="40"/>
+        <v>2600</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="38"/>
+        <v>3508</v>
       </c>
     </row>
   </sheetData>
